--- a/05_Floorplan_processing/Gh_parsing/IBC_MSD.xlsx
+++ b/05_Floorplan_processing/Gh_parsing/IBC_MSD.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://impleniaag.sharepoint.com/teams/2751/Shared Documents/03_work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panz\Documents\GitHub\IBC\05_Floorplan_processing\Gh_parsing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{022C990F-EE06-456F-A452-15E86077D79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EC108C-E63D-4ABE-8D4A-853B1E241322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15375" yWindow="-18840" windowWidth="28800" windowHeight="14970" xr2:uid="{924C4B8A-80D6-4B62-B95D-A4635A03DF90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{924C4B8A-80D6-4B62-B95D-A4635A03DF90}"/>
   </bookViews>
   <sheets>
     <sheet name="IBCXMSD" sheetId="3" r:id="rId1"/>
     <sheet name="MSD" sheetId="1" r:id="rId2"/>
+    <sheet name="implenia" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="107">
   <si>
     <t>apartment_id</t>
   </si>
@@ -319,6 +320,45 @@
   </si>
   <si>
     <t>POLYGON ((40.65 15.65, 44.04 15.65, 44.04 11.16, 40.65 11.16,40.65 15.65))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 0.1	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 0	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apartment_id	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site_id	building_id	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan_id	floor_id	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit_id	area_id	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit_usage	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_type	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_subtype	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geom	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elevation	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">height	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zoning	</t>
   </si>
 </sst>
 </file>
@@ -738,27 +778,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAF4018-93C9-42BB-8870-8CFA3AC37FE7}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.27734375" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.94140625" customWidth="1"/>
-    <col min="10" max="10" width="14.0546875" customWidth="1"/>
-    <col min="11" max="11" width="17.609375" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="18.5" customWidth="1"/>
-    <col min="14" max="14" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="30.85546875" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="20.44140625" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
@@ -811,7 +851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="57.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -867,7 +907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -923,7 +963,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -979,7 +1019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1035,7 +1075,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1089,7 +1129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1145,7 +1185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1199,7 +1239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1253,7 +1293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1307,7 +1347,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1361,7 +1401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1415,7 +1455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1469,7 +1509,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1523,7 +1563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1577,7 +1617,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1631,7 +1671,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1685,7 +1725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1739,7 +1779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1793,7 +1833,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1847,7 +1887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1901,7 +1941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1955,7 +1995,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2009,7 +2049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2063,7 +2103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2117,7 +2157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2171,7 +2211,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2225,7 +2265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2279,7 +2319,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2333,7 +2373,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2387,7 +2427,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2441,7 +2481,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2495,7 +2535,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2549,7 +2589,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2603,7 +2643,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2657,7 +2697,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2711,7 +2751,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2765,7 +2805,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2819,7 +2859,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2873,7 +2913,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2927,7 +2967,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2981,7 +3021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3001,7 +3041,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3021,7 +3061,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3041,7 +3081,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3061,7 +3101,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3081,7 +3121,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3101,7 +3141,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3121,7 +3161,7 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3141,7 +3181,7 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3161,7 +3201,7 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3195,23 +3235,23 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.27734375" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.94140625" customWidth="1"/>
-    <col min="10" max="10" width="14.0546875" customWidth="1"/>
-    <col min="11" max="11" width="17.609375" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="18.5" customWidth="1"/>
-    <col min="14" max="14" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="30.85546875" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="20.44140625" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
@@ -3264,7 +3304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="57.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3320,7 +3360,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3376,7 +3416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3432,7 +3472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3488,7 +3528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3544,7 +3584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3600,7 +3640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3656,7 +3696,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3712,7 +3752,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3768,7 +3808,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3824,7 +3864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3880,7 +3920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3936,7 +3976,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3992,7 +4032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4048,7 +4088,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4104,7 +4144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4160,7 +4200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4216,7 +4256,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4272,7 +4312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4328,7 +4368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4384,7 +4424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4440,7 +4480,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4496,7 +4536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4552,7 +4592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4608,7 +4648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4664,7 +4704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4720,7 +4760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4776,7 +4816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4832,7 +4872,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4888,7 +4928,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4944,7 +4984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5000,7 +5040,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5056,7 +5096,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5112,7 +5152,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5168,7 +5208,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5224,7 +5264,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5280,7 +5320,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5336,7 +5376,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5392,7 +5432,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5448,7 +5488,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5504,7 +5544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -5524,7 +5564,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -5544,7 +5584,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -5564,7 +5604,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -5584,7 +5624,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -5604,7 +5644,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -5624,7 +5664,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -5644,7 +5684,7 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -5664,7 +5704,7 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -5684,7 +5724,7 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -5710,7 +5750,73 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F7808F-4FB1-406F-9DB2-C60D7C788390}">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004F0B3DC873361248B58BD8ADCEDE0A7C" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cfb8261360f85d8073cd29cacd005d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207c4bca-efe7-4c7e-929e-67d51b6069d8" xmlns:ns3="b50d2178-05e6-418b-8135-da65c8aa6eba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe5a19e1ac168f01cbaedae1857ed526" ns2:_="" ns3:_="">
     <xsd:import namespace="207c4bca-efe7-4c7e-929e-67d51b6069d8"/>
@@ -5945,15 +6051,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5966,13 +6063,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3400E378-AFFC-4FCC-9718-FE85E70B9997}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A8ACE9-2181-4D30-9397-6A92AB5F53D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A8ACE9-2181-4D30-9397-6A92AB5F53D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3400E378-AFFC-4FCC-9718-FE85E70B9997}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="207c4bca-efe7-4c7e-929e-67d51b6069d8"/>
+    <ds:schemaRef ds:uri="b50d2178-05e6-418b-8135-da65c8aa6eba"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6B5D6DB-4C02-41D8-8472-10EC289A2132}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6B5D6DB-4C02-41D8-8472-10EC289A2132}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b50d2178-05e6-418b-8135-da65c8aa6eba"/>
+    <ds:schemaRef ds:uri="207c4bca-efe7-4c7e-929e-67d51b6069d8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>